--- a/Code/Results/Cases/Case_0_214/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_214/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.525968613908319</v>
+        <v>4.394810730541869</v>
       </c>
       <c r="D2">
-        <v>7.095189789844484</v>
+        <v>8.705329417287764</v>
       </c>
       <c r="E2">
-        <v>10.86405904442113</v>
+        <v>13.48940174833411</v>
       </c>
       <c r="F2">
-        <v>25.04286590509412</v>
+        <v>35.20292828826183</v>
       </c>
       <c r="G2">
-        <v>29.38630674786384</v>
+        <v>38.57583020164487</v>
       </c>
       <c r="H2">
-        <v>9.953302555010147</v>
+        <v>16.69741828078335</v>
       </c>
       <c r="I2">
-        <v>16.53346603122243</v>
+        <v>24.51744850372801</v>
       </c>
       <c r="J2">
-        <v>6.402726522880636</v>
+        <v>10.01631730254438</v>
       </c>
       <c r="K2">
-        <v>24.68820210368133</v>
+        <v>18.203195154462</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.353662916171115</v>
+        <v>4.333750065981086</v>
       </c>
       <c r="D3">
-        <v>6.749181532926261</v>
+        <v>8.637066540057091</v>
       </c>
       <c r="E3">
-        <v>10.38723062258231</v>
+        <v>13.42484874682014</v>
       </c>
       <c r="F3">
-        <v>24.50133324353579</v>
+        <v>35.3145944369608</v>
       </c>
       <c r="G3">
-        <v>28.62162530763395</v>
+        <v>38.73748296874551</v>
       </c>
       <c r="H3">
-        <v>10.0067921568452</v>
+        <v>16.78530786875513</v>
       </c>
       <c r="I3">
-        <v>16.31129178895376</v>
+        <v>24.62476834721426</v>
       </c>
       <c r="J3">
-        <v>6.293349583606769</v>
+        <v>10.02738553507294</v>
       </c>
       <c r="K3">
-        <v>23.02439842797504</v>
+        <v>17.59373171871528</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.244599969613637</v>
+        <v>4.29558329770927</v>
       </c>
       <c r="D4">
-        <v>6.529697295499242</v>
+        <v>8.595718302031672</v>
       </c>
       <c r="E4">
-        <v>10.0900018889683</v>
+        <v>13.38766599454569</v>
       </c>
       <c r="F4">
-        <v>24.20545871741481</v>
+        <v>35.3958590508314</v>
       </c>
       <c r="G4">
-        <v>28.21231053491147</v>
+        <v>38.85553599774195</v>
       </c>
       <c r="H4">
-        <v>10.05415622549861</v>
+        <v>16.84368780417193</v>
       </c>
       <c r="I4">
-        <v>16.20279817533729</v>
+        <v>24.69922376114399</v>
       </c>
       <c r="J4">
-        <v>6.229864902167633</v>
+        <v>10.03596043459937</v>
       </c>
       <c r="K4">
-        <v>21.94506418337503</v>
+        <v>17.21013151882299</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.199369290698158</v>
+        <v>4.279871241662373</v>
       </c>
       <c r="D5">
-        <v>6.438573972585471</v>
+        <v>8.579023086657886</v>
       </c>
       <c r="E5">
-        <v>9.967905113791337</v>
+        <v>13.37314129313603</v>
       </c>
       <c r="F5">
-        <v>24.09388362725343</v>
+        <v>35.4321478298917</v>
       </c>
       <c r="G5">
-        <v>28.06028813140862</v>
+        <v>38.90832365574826</v>
       </c>
       <c r="H5">
-        <v>10.07687854670764</v>
+        <v>16.86858450752073</v>
       </c>
       <c r="I5">
-        <v>16.16531717494065</v>
+        <v>24.7317033375167</v>
       </c>
       <c r="J5">
-        <v>6.204912361607021</v>
+        <v>10.03990174011817</v>
       </c>
       <c r="K5">
-        <v>21.49058184279092</v>
+        <v>17.05167497359509</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.19181238932164</v>
+        <v>4.277253003285816</v>
       </c>
       <c r="D6">
-        <v>6.423344324648942</v>
+        <v>8.576260547435833</v>
       </c>
       <c r="E6">
-        <v>9.947576948572575</v>
+        <v>13.37076767876887</v>
       </c>
       <c r="F6">
-        <v>24.07589294762479</v>
+        <v>35.43836454602751</v>
       </c>
       <c r="G6">
-        <v>28.03592488478147</v>
+        <v>38.91737026448045</v>
       </c>
       <c r="H6">
-        <v>10.08085162805047</v>
+        <v>16.87278529774835</v>
       </c>
       <c r="I6">
-        <v>16.15949105641937</v>
+        <v>24.73722527656233</v>
       </c>
       <c r="J6">
-        <v>6.200824265339615</v>
+        <v>10.04058317354736</v>
       </c>
       <c r="K6">
-        <v>21.41422745263249</v>
+        <v>17.02524129645297</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.243993107761262</v>
+        <v>4.295372027623211</v>
       </c>
       <c r="D7">
-        <v>6.528475056083254</v>
+        <v>8.595492502718695</v>
       </c>
       <c r="E7">
-        <v>10.08835898145403</v>
+        <v>13.38746755475226</v>
       </c>
       <c r="F7">
-        <v>24.20391786471872</v>
+        <v>35.39633563625741</v>
       </c>
       <c r="G7">
-        <v>28.21020102817253</v>
+        <v>38.8562290245865</v>
       </c>
       <c r="H7">
-        <v>10.05444911291199</v>
+        <v>16.84401909518886</v>
       </c>
       <c r="I7">
-        <v>16.2022658414351</v>
+        <v>24.69965315299981</v>
       </c>
       <c r="J7">
-        <v>6.22952467495114</v>
+        <v>10.03601177925608</v>
       </c>
       <c r="K7">
-        <v>21.93899432886479</v>
+        <v>17.20800285761946</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.46725462536616</v>
+        <v>4.373903687876924</v>
       </c>
       <c r="D8">
-        <v>6.977392919917902</v>
+        <v>8.681682495844006</v>
       </c>
       <c r="E8">
-        <v>10.70065380430774</v>
+        <v>13.46664142450758</v>
       </c>
       <c r="F8">
-        <v>24.84842641475825</v>
+        <v>35.23878236105647</v>
       </c>
       <c r="G8">
-        <v>29.10996206265073</v>
+        <v>38.62763922435028</v>
       </c>
       <c r="H8">
-        <v>9.968590679047301</v>
+        <v>16.72680386130776</v>
       </c>
       <c r="I8">
-        <v>16.45089841949589</v>
+        <v>24.55266718206595</v>
       </c>
       <c r="J8">
-        <v>6.364247831490899</v>
+        <v>10.01976421299852</v>
       </c>
       <c r="K8">
-        <v>24.12643257471054</v>
+        <v>17.99512876317281</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.877926731544426</v>
+        <v>4.522077882782558</v>
       </c>
       <c r="D9">
-        <v>7.798941386879825</v>
+        <v>8.854635883426337</v>
       </c>
       <c r="E9">
-        <v>11.86079064169895</v>
+        <v>13.64085767410134</v>
       </c>
       <c r="F9">
-        <v>26.41064869868745</v>
+        <v>35.03148386490798</v>
       </c>
       <c r="G9">
-        <v>31.36350193702127</v>
+        <v>38.33049933071435</v>
       </c>
       <c r="H9">
-        <v>9.926154472993217</v>
+        <v>16.53215368048813</v>
       </c>
       <c r="I9">
-        <v>17.17162006405358</v>
+        <v>24.33297190285307</v>
       </c>
       <c r="J9">
-        <v>6.657827090135969</v>
+        <v>10.0020313148239</v>
       </c>
       <c r="K9">
-        <v>27.96372664974233</v>
+        <v>19.45536189102431</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.16187618598221</v>
+        <v>4.626787328268454</v>
       </c>
       <c r="D10">
-        <v>8.363820550980357</v>
+        <v>8.983355186950124</v>
       </c>
       <c r="E10">
-        <v>12.68311303178488</v>
+        <v>13.77968266853624</v>
       </c>
       <c r="F10">
-        <v>27.7489435141612</v>
+        <v>34.9422837388978</v>
       </c>
       <c r="G10">
-        <v>33.32792807859422</v>
+        <v>38.2068347053793</v>
       </c>
       <c r="H10">
-        <v>9.986897459710372</v>
+        <v>16.41084913379249</v>
       </c>
       <c r="I10">
-        <v>17.85726848293159</v>
+        <v>24.21416717901758</v>
       </c>
       <c r="J10">
-        <v>6.891832405022559</v>
+        <v>9.997629409782729</v>
       </c>
       <c r="K10">
-        <v>30.51621414281547</v>
+        <v>20.46694930618154</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.28704610771049</v>
+        <v>4.673400040147295</v>
       </c>
       <c r="D11">
-        <v>8.612063035818258</v>
+        <v>9.042110080685216</v>
       </c>
       <c r="E11">
-        <v>13.05004001091508</v>
+        <v>13.84501984184824</v>
       </c>
       <c r="F11">
-        <v>28.40069021508807</v>
+        <v>34.91561760910075</v>
       </c>
       <c r="G11">
-        <v>34.29001300709254</v>
+        <v>38.17160357233822</v>
       </c>
       <c r="H11">
-        <v>10.03784823450659</v>
+        <v>16.36043022498756</v>
       </c>
       <c r="I11">
-        <v>18.20563121296711</v>
+        <v>24.16953659878873</v>
       </c>
       <c r="J11">
-        <v>7.002384820020392</v>
+        <v>9.997500559179228</v>
       </c>
       <c r="K11">
-        <v>31.62162720584949</v>
+        <v>20.91201179897362</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.333863878332743</v>
+        <v>4.690894801223134</v>
       </c>
       <c r="D12">
-        <v>8.704799726312535</v>
+        <v>9.064374130415146</v>
       </c>
       <c r="E12">
-        <v>13.18793251356932</v>
+        <v>13.87006032540015</v>
       </c>
       <c r="F12">
-        <v>28.65379320401419</v>
+        <v>34.90753514163497</v>
       </c>
       <c r="G12">
-        <v>34.66427390504912</v>
+        <v>38.1613197812197</v>
       </c>
       <c r="H12">
-        <v>10.06077572539882</v>
+        <v>16.34202731219048</v>
       </c>
       <c r="I12">
-        <v>18.34297701998103</v>
+        <v>24.15400265838429</v>
       </c>
       <c r="J12">
-        <v>7.044851651423813</v>
+        <v>9.997720985059031</v>
       </c>
       <c r="K12">
-        <v>32.03239700550657</v>
+        <v>21.07824207071956</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.323806734242257</v>
+        <v>4.68713410086879</v>
       </c>
       <c r="D13">
-        <v>8.684883672665213</v>
+        <v>9.059578729131863</v>
       </c>
       <c r="E13">
-        <v>13.1582819940125</v>
+        <v>13.86465437570377</v>
       </c>
       <c r="F13">
-        <v>28.5990005379238</v>
+        <v>34.90918598909766</v>
       </c>
       <c r="G13">
-        <v>34.58322620009037</v>
+        <v>38.16339809250346</v>
       </c>
       <c r="H13">
-        <v>10.05567179475271</v>
+        <v>16.34595996180125</v>
       </c>
       <c r="I13">
-        <v>18.31315281316796</v>
+        <v>24.15728718724055</v>
       </c>
       <c r="J13">
-        <v>7.035678581784348</v>
+        <v>9.997661543422488</v>
       </c>
       <c r="K13">
-        <v>31.94427530114656</v>
+        <v>21.04254586631055</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.290909502540742</v>
+        <v>4.674842534760437</v>
       </c>
       <c r="D14">
-        <v>8.619717972740922</v>
+        <v>9.043941539244742</v>
       </c>
       <c r="E14">
-        <v>13.06140572256858</v>
+        <v>13.84707404129681</v>
       </c>
       <c r="F14">
-        <v>28.42138609693622</v>
+        <v>34.91491218797417</v>
       </c>
       <c r="G14">
-        <v>34.32060381310371</v>
+        <v>38.17069605959562</v>
       </c>
       <c r="H14">
-        <v>10.03966005927663</v>
+        <v>16.35890235792803</v>
       </c>
       <c r="I14">
-        <v>18.21682089846388</v>
+        <v>24.16823114981521</v>
       </c>
       <c r="J14">
-        <v>7.005866414894286</v>
+        <v>9.997513299822463</v>
       </c>
       <c r="K14">
-        <v>31.65557720429968</v>
+        <v>20.9257345632583</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.270683191270483</v>
+        <v>4.667292937392601</v>
       </c>
       <c r="D15">
-        <v>8.579636862577351</v>
+        <v>9.03436483118421</v>
       </c>
       <c r="E15">
-        <v>13.00192843699405</v>
+        <v>13.83634401208462</v>
       </c>
       <c r="F15">
-        <v>28.31341665472194</v>
+        <v>34.91868253226363</v>
       </c>
       <c r="G15">
-        <v>34.16103782025235</v>
+        <v>38.17556540044444</v>
       </c>
       <c r="H15">
-        <v>10.03033395458172</v>
+        <v>16.36691990010161</v>
       </c>
       <c r="I15">
-        <v>18.15852716518481</v>
+        <v>24.17511299947541</v>
       </c>
       <c r="J15">
-        <v>6.987684600134861</v>
+        <v>9.997457548359243</v>
       </c>
       <c r="K15">
-        <v>31.47772790989926</v>
+        <v>20.85388041308184</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.153614903697249</v>
+        <v>4.623719705240656</v>
       </c>
       <c r="D16">
-        <v>8.34742041694262</v>
+        <v>8.979518249188734</v>
       </c>
       <c r="E16">
-        <v>12.65898682527108</v>
+        <v>13.77545538621671</v>
       </c>
       <c r="F16">
-        <v>27.70722487656487</v>
+        <v>34.9443076849884</v>
       </c>
       <c r="G16">
-        <v>33.2664388195588</v>
+        <v>38.20956321388029</v>
       </c>
       <c r="H16">
-        <v>9.984060856739132</v>
+        <v>16.414240375434</v>
       </c>
       <c r="I16">
-        <v>17.83525183671912</v>
+        <v>24.21727445127449</v>
       </c>
       <c r="J16">
-        <v>6.884691117190375</v>
+        <v>9.997675517711768</v>
       </c>
       <c r="K16">
-        <v>30.4428671048268</v>
+        <v>20.43754765892592</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.080766796906411</v>
+        <v>4.596720569134023</v>
       </c>
       <c r="D17">
-        <v>8.202716005013629</v>
+        <v>8.945912933774006</v>
       </c>
       <c r="E17">
-        <v>12.44674581490731</v>
+        <v>13.73865096282277</v>
       </c>
       <c r="F17">
-        <v>27.34643040085703</v>
+        <v>34.96360212265508</v>
       </c>
       <c r="G17">
-        <v>32.73522735652898</v>
+        <v>38.23583011202752</v>
       </c>
       <c r="H17">
-        <v>9.961845062367997</v>
+        <v>16.44449323942566</v>
       </c>
       <c r="I17">
-        <v>17.64640547899964</v>
+        <v>24.24555975501623</v>
       </c>
       <c r="J17">
-        <v>6.822566663724121</v>
+        <v>9.998289005251095</v>
       </c>
       <c r="K17">
-        <v>29.79386919464842</v>
+        <v>20.17817105391748</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.038490028556941</v>
+        <v>4.581095916591138</v>
       </c>
       <c r="D18">
-        <v>8.118664752603941</v>
+        <v>8.9266036843187</v>
       </c>
       <c r="E18">
-        <v>12.32399743811146</v>
+        <v>13.71768865497234</v>
       </c>
       <c r="F18">
-        <v>27.14294569355311</v>
+        <v>34.97600839403632</v>
       </c>
       <c r="G18">
-        <v>32.43612610515244</v>
+        <v>38.25291524351254</v>
       </c>
       <c r="H18">
-        <v>9.951245038254982</v>
+        <v>16.46234193213406</v>
       </c>
       <c r="I18">
-        <v>17.54120731674891</v>
+        <v>24.26271409547006</v>
       </c>
       <c r="J18">
-        <v>6.787219433850115</v>
+        <v>9.998818239281862</v>
       </c>
       <c r="K18">
-        <v>29.41532547283364</v>
+        <v>20.02756874373302</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.024111453216119</v>
+        <v>4.575789586490748</v>
       </c>
       <c r="D19">
-        <v>8.090065994500279</v>
+        <v>8.920069701282383</v>
       </c>
       <c r="E19">
-        <v>12.28232252831742</v>
+        <v>13.7106271287166</v>
       </c>
       <c r="F19">
-        <v>27.07473868590253</v>
+        <v>34.98043321767733</v>
       </c>
       <c r="G19">
-        <v>32.33595861560533</v>
+        <v>38.25903844484395</v>
       </c>
       <c r="H19">
-        <v>9.948021600613878</v>
+        <v>16.46846200243274</v>
       </c>
       <c r="I19">
-        <v>17.50617083934248</v>
+        <v>24.26867392139426</v>
       </c>
       <c r="J19">
-        <v>6.77531728096387</v>
+        <v>9.999027724964076</v>
       </c>
       <c r="K19">
-        <v>29.28624866778524</v>
+        <v>19.97633851532866</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.08856062540029</v>
+        <v>4.599604625521154</v>
       </c>
       <c r="D20">
-        <v>8.218205146449632</v>
+        <v>8.949488345153808</v>
       </c>
       <c r="E20">
-        <v>12.469409142506</v>
+        <v>13.74254758236326</v>
       </c>
       <c r="F20">
-        <v>27.38441915929519</v>
+        <v>34.96141264610448</v>
       </c>
       <c r="G20">
-        <v>32.79110884150766</v>
+        <v>38.23282907430192</v>
       </c>
       <c r="H20">
-        <v>9.963982540901116</v>
+        <v>16.44122636564795</v>
       </c>
       <c r="I20">
-        <v>17.66615303932515</v>
+        <v>24.24245700711022</v>
       </c>
       <c r="J20">
-        <v>6.829139978747972</v>
+        <v>9.998205445682695</v>
       </c>
       <c r="K20">
-        <v>29.86349893130364</v>
+        <v>20.20592966680412</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.300588018942602</v>
+        <v>4.678457187638353</v>
       </c>
       <c r="D21">
-        <v>8.638893161132577</v>
+        <v>9.048534268421163</v>
       </c>
       <c r="E21">
-        <v>13.08988935969238</v>
+        <v>13.85222983053777</v>
       </c>
       <c r="F21">
-        <v>28.47338368187891</v>
+        <v>34.91317545582614</v>
       </c>
       <c r="G21">
-        <v>34.39747169976214</v>
+        <v>38.16846923657521</v>
       </c>
       <c r="H21">
-        <v>10.04426223780871</v>
+        <v>16.35508210833479</v>
       </c>
       <c r="I21">
-        <v>18.24496713996724</v>
+        <v>24.16497945118262</v>
       </c>
       <c r="J21">
-        <v>7.014606477851062</v>
+        <v>9.997549538294113</v>
       </c>
       <c r="K21">
-        <v>31.74058566342284</v>
+        <v>20.9601084108977</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.435772263287031</v>
+        <v>4.729075702950357</v>
       </c>
       <c r="D22">
-        <v>8.906451834190667</v>
+        <v>9.113346654053817</v>
       </c>
       <c r="E22">
-        <v>13.48926427641589</v>
+        <v>13.9256471338539</v>
       </c>
       <c r="F22">
-        <v>29.22188398923911</v>
+        <v>34.8934027893843</v>
       </c>
       <c r="G22">
-        <v>35.50533178215679</v>
+        <v>38.14424088598898</v>
       </c>
       <c r="H22">
-        <v>10.11803984474227</v>
+        <v>16.30280377798276</v>
       </c>
       <c r="I22">
-        <v>18.65498054732489</v>
+        <v>24.12231505813051</v>
       </c>
       <c r="J22">
-        <v>7.139344048943832</v>
+        <v>9.998689892621359</v>
       </c>
       <c r="K22">
-        <v>32.92185203827162</v>
+        <v>21.43952083724862</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.363932609720294</v>
+        <v>4.702146592261505</v>
       </c>
       <c r="D23">
-        <v>8.764327868634341</v>
+        <v>9.078752300646634</v>
       </c>
       <c r="E23">
-        <v>13.27667564684238</v>
+        <v>13.8863095528951</v>
       </c>
       <c r="F23">
-        <v>28.81898155734642</v>
+        <v>34.90287591833706</v>
       </c>
       <c r="G23">
-        <v>34.90869805965975</v>
+        <v>38.15552981887619</v>
       </c>
       <c r="H23">
-        <v>10.07662041500871</v>
+        <v>16.33033613766904</v>
       </c>
       <c r="I23">
-        <v>18.43318552085783</v>
+        <v>24.14435233320609</v>
       </c>
       <c r="J23">
-        <v>7.072441199099964</v>
+        <v>9.997937798266934</v>
       </c>
       <c r="K23">
-        <v>32.29548687125032</v>
+        <v>21.18492301745649</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.085038266659446</v>
+        <v>4.598301062111743</v>
       </c>
       <c r="D24">
-        <v>8.211205179337615</v>
+        <v>8.947871866695269</v>
       </c>
       <c r="E24">
-        <v>12.45916531798318</v>
+        <v>13.74078530575128</v>
       </c>
       <c r="F24">
-        <v>27.36723217583579</v>
+        <v>34.96239841772989</v>
       </c>
       <c r="G24">
-        <v>32.7658252079312</v>
+        <v>38.23417966631118</v>
       </c>
       <c r="H24">
-        <v>9.96300944237753</v>
+        <v>16.44270189947219</v>
       </c>
       <c r="I24">
-        <v>17.65721467796</v>
+        <v>24.24385697960464</v>
       </c>
       <c r="J24">
-        <v>6.826167034768322</v>
+        <v>9.998242673079659</v>
       </c>
       <c r="K24">
-        <v>29.83203624265755</v>
+        <v>20.19338460772255</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.769882235754857</v>
+        <v>4.482680141465091</v>
       </c>
       <c r="D25">
-        <v>7.583334783280657</v>
+        <v>8.807502895999537</v>
       </c>
       <c r="E25">
-        <v>11.55192095105111</v>
+        <v>13.59177047381946</v>
       </c>
       <c r="F25">
-        <v>25.95510745329221</v>
+        <v>35.07655818377351</v>
       </c>
       <c r="G25">
-        <v>30.7001778526426</v>
+        <v>38.39443390602783</v>
       </c>
       <c r="H25">
-        <v>9.922612626664487</v>
+        <v>16.58101769954775</v>
       </c>
       <c r="I25">
-        <v>16.95014597367755</v>
+        <v>24.38498077103814</v>
       </c>
       <c r="J25">
-        <v>6.575222514510766</v>
+        <v>10.00531412955262</v>
       </c>
       <c r="K25">
-        <v>26.97317023848374</v>
+        <v>19.07040310500382</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_214/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_214/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.394810730541869</v>
+        <v>4.525968613908213</v>
       </c>
       <c r="D2">
-        <v>8.705329417287764</v>
+        <v>7.095189789844439</v>
       </c>
       <c r="E2">
-        <v>13.48940174833411</v>
+        <v>10.86405904442113</v>
       </c>
       <c r="F2">
-        <v>35.20292828826183</v>
+        <v>25.04286590509412</v>
       </c>
       <c r="G2">
-        <v>38.57583020164487</v>
+        <v>29.38630674786387</v>
       </c>
       <c r="H2">
-        <v>16.69741828078335</v>
+        <v>9.953302555010177</v>
       </c>
       <c r="I2">
-        <v>24.51744850372801</v>
+        <v>16.53346603122248</v>
       </c>
       <c r="J2">
-        <v>10.01631730254438</v>
+        <v>6.402726522880682</v>
       </c>
       <c r="K2">
-        <v>18.203195154462</v>
+        <v>24.68820210368129</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.333750065981086</v>
+        <v>4.353662916171205</v>
       </c>
       <c r="D3">
-        <v>8.637066540057091</v>
+        <v>6.749181532926332</v>
       </c>
       <c r="E3">
-        <v>13.42484874682014</v>
+        <v>10.38723062258234</v>
       </c>
       <c r="F3">
-        <v>35.3145944369608</v>
+        <v>24.50133324353601</v>
       </c>
       <c r="G3">
-        <v>38.73748296874551</v>
+        <v>28.62162530763414</v>
       </c>
       <c r="H3">
-        <v>16.78530786875513</v>
+        <v>10.00679215684534</v>
       </c>
       <c r="I3">
-        <v>24.62476834721426</v>
+        <v>16.31129178895387</v>
       </c>
       <c r="J3">
-        <v>10.02738553507294</v>
+        <v>6.293349583606736</v>
       </c>
       <c r="K3">
-        <v>17.59373171871528</v>
+        <v>23.02439842797497</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.29558329770927</v>
+        <v>4.244599969613532</v>
       </c>
       <c r="D4">
-        <v>8.595718302031672</v>
+        <v>6.529697295499341</v>
       </c>
       <c r="E4">
-        <v>13.38766599454569</v>
+        <v>10.09000188896836</v>
       </c>
       <c r="F4">
-        <v>35.3958590508314</v>
+        <v>24.20545871741477</v>
       </c>
       <c r="G4">
-        <v>38.85553599774195</v>
+        <v>28.21231053491134</v>
       </c>
       <c r="H4">
-        <v>16.84368780417193</v>
+        <v>10.05415622549851</v>
       </c>
       <c r="I4">
-        <v>24.69922376114399</v>
+        <v>16.20279817533726</v>
       </c>
       <c r="J4">
-        <v>10.03596043459937</v>
+        <v>6.229864902167679</v>
       </c>
       <c r="K4">
-        <v>17.21013151882299</v>
+        <v>21.94506418337507</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.279871241662373</v>
+        <v>4.199369290698145</v>
       </c>
       <c r="D5">
-        <v>8.579023086657886</v>
+        <v>6.438573972585424</v>
       </c>
       <c r="E5">
-        <v>13.37314129313603</v>
+        <v>9.967905113791295</v>
       </c>
       <c r="F5">
-        <v>35.4321478298917</v>
+        <v>24.09388362725338</v>
       </c>
       <c r="G5">
-        <v>38.90832365574826</v>
+        <v>28.06028813140868</v>
       </c>
       <c r="H5">
-        <v>16.86858450752073</v>
+        <v>10.07687854670759</v>
       </c>
       <c r="I5">
-        <v>24.7317033375167</v>
+        <v>16.16531717494063</v>
       </c>
       <c r="J5">
-        <v>10.03990174011817</v>
+        <v>6.20491236160694</v>
       </c>
       <c r="K5">
-        <v>17.05167497359509</v>
+        <v>21.49058184279092</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.277253003285816</v>
+        <v>4.191812389321877</v>
       </c>
       <c r="D6">
-        <v>8.576260547435833</v>
+        <v>6.423344324648991</v>
       </c>
       <c r="E6">
-        <v>13.37076767876887</v>
+        <v>9.947576948572683</v>
       </c>
       <c r="F6">
-        <v>35.43836454602751</v>
+        <v>24.0758929476251</v>
       </c>
       <c r="G6">
-        <v>38.91737026448045</v>
+        <v>28.03592488478175</v>
       </c>
       <c r="H6">
-        <v>16.87278529774835</v>
+        <v>10.08085162805061</v>
       </c>
       <c r="I6">
-        <v>24.73722527656233</v>
+        <v>16.15949105641954</v>
       </c>
       <c r="J6">
-        <v>10.04058317354736</v>
+        <v>6.20082426533971</v>
       </c>
       <c r="K6">
-        <v>17.02524129645297</v>
+        <v>21.41422745263243</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.295372027623211</v>
+        <v>4.243993107760948</v>
       </c>
       <c r="D7">
-        <v>8.595492502718695</v>
+        <v>6.528475056083296</v>
       </c>
       <c r="E7">
-        <v>13.38746755475226</v>
+        <v>10.08835898145403</v>
       </c>
       <c r="F7">
-        <v>35.39633563625741</v>
+        <v>24.20391786471859</v>
       </c>
       <c r="G7">
-        <v>38.8562290245865</v>
+        <v>28.21020102817219</v>
       </c>
       <c r="H7">
-        <v>16.84401909518886</v>
+        <v>10.05444911291187</v>
       </c>
       <c r="I7">
-        <v>24.69965315299981</v>
+        <v>16.20226584143501</v>
       </c>
       <c r="J7">
-        <v>10.03601177925608</v>
+        <v>6.229524674951142</v>
       </c>
       <c r="K7">
-        <v>17.20800285761946</v>
+        <v>21.93899432886484</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.373903687876924</v>
+        <v>4.46725462536626</v>
       </c>
       <c r="D8">
-        <v>8.681682495844006</v>
+        <v>6.977392919917783</v>
       </c>
       <c r="E8">
-        <v>13.46664142450758</v>
+        <v>10.7006538043077</v>
       </c>
       <c r="F8">
-        <v>35.23878236105647</v>
+        <v>24.84842641475826</v>
       </c>
       <c r="G8">
-        <v>38.62763922435028</v>
+        <v>29.10996206265083</v>
       </c>
       <c r="H8">
-        <v>16.72680386130776</v>
+        <v>9.968590679047397</v>
       </c>
       <c r="I8">
-        <v>24.55266718206595</v>
+        <v>16.45089841949592</v>
       </c>
       <c r="J8">
-        <v>10.01976421299852</v>
+        <v>6.364247831490911</v>
       </c>
       <c r="K8">
-        <v>17.99512876317281</v>
+        <v>24.12643257471052</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.522077882782558</v>
+        <v>4.877926731544519</v>
       </c>
       <c r="D9">
-        <v>8.854635883426337</v>
+        <v>7.798941386879759</v>
       </c>
       <c r="E9">
-        <v>13.64085767410134</v>
+        <v>11.86079064169892</v>
       </c>
       <c r="F9">
-        <v>35.03148386490798</v>
+        <v>26.41064869868752</v>
       </c>
       <c r="G9">
-        <v>38.33049933071435</v>
+        <v>31.36350193702129</v>
       </c>
       <c r="H9">
-        <v>16.53215368048813</v>
+        <v>9.926154472993307</v>
       </c>
       <c r="I9">
-        <v>24.33297190285307</v>
+        <v>17.17162006405368</v>
       </c>
       <c r="J9">
-        <v>10.0020313148239</v>
+        <v>6.657827090135959</v>
       </c>
       <c r="K9">
-        <v>19.45536189102431</v>
+        <v>27.96372664974223</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.626787328268454</v>
+        <v>5.161876185982129</v>
       </c>
       <c r="D10">
-        <v>8.983355186950124</v>
+        <v>8.363820550980247</v>
       </c>
       <c r="E10">
-        <v>13.77968266853624</v>
+        <v>12.68311303178483</v>
       </c>
       <c r="F10">
-        <v>34.9422837388978</v>
+        <v>27.74894351416119</v>
       </c>
       <c r="G10">
-        <v>38.2068347053793</v>
+        <v>33.32792807859433</v>
       </c>
       <c r="H10">
-        <v>16.41084913379249</v>
+        <v>9.986897459710326</v>
       </c>
       <c r="I10">
-        <v>24.21416717901758</v>
+        <v>17.85726848293161</v>
       </c>
       <c r="J10">
-        <v>9.997629409782729</v>
+        <v>6.891832405022553</v>
       </c>
       <c r="K10">
-        <v>20.46694930618154</v>
+        <v>30.51621414281549</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.673400040147295</v>
+        <v>5.287046107710564</v>
       </c>
       <c r="D11">
-        <v>9.042110080685216</v>
+        <v>8.612063035818233</v>
       </c>
       <c r="E11">
-        <v>13.84501984184824</v>
+        <v>13.05004001091505</v>
       </c>
       <c r="F11">
-        <v>34.91561760910075</v>
+        <v>28.4006902150881</v>
       </c>
       <c r="G11">
-        <v>38.17160357233822</v>
+        <v>34.29001300709258</v>
       </c>
       <c r="H11">
-        <v>16.36043022498756</v>
+        <v>10.0378482345066</v>
       </c>
       <c r="I11">
-        <v>24.16953659878873</v>
+        <v>18.20563121296713</v>
       </c>
       <c r="J11">
-        <v>9.997500559179228</v>
+        <v>7.002384820020373</v>
       </c>
       <c r="K11">
-        <v>20.91201179897362</v>
+        <v>31.62162720584946</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.690894801223134</v>
+        <v>5.333863878332751</v>
       </c>
       <c r="D12">
-        <v>9.064374130415146</v>
+        <v>8.70479972631256</v>
       </c>
       <c r="E12">
-        <v>13.87006032540015</v>
+        <v>13.18793251356933</v>
       </c>
       <c r="F12">
-        <v>34.90753514163497</v>
+        <v>28.65379320401414</v>
       </c>
       <c r="G12">
-        <v>38.1613197812197</v>
+        <v>34.66427390504908</v>
       </c>
       <c r="H12">
-        <v>16.34202731219048</v>
+        <v>10.06077572539877</v>
       </c>
       <c r="I12">
-        <v>24.15400265838429</v>
+        <v>18.34297701998099</v>
       </c>
       <c r="J12">
-        <v>9.997720985059031</v>
+        <v>7.044851651423802</v>
       </c>
       <c r="K12">
-        <v>21.07824207071956</v>
+        <v>32.03239700550662</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.68713410086879</v>
+        <v>5.323806734242432</v>
       </c>
       <c r="D13">
-        <v>9.059578729131863</v>
+        <v>8.684883672665132</v>
       </c>
       <c r="E13">
-        <v>13.86465437570377</v>
+        <v>13.15828199401249</v>
       </c>
       <c r="F13">
-        <v>34.90918598909766</v>
+        <v>28.59900053792379</v>
       </c>
       <c r="G13">
-        <v>38.16339809250346</v>
+        <v>34.5832262000904</v>
       </c>
       <c r="H13">
-        <v>16.34595996180125</v>
+        <v>10.05567179475273</v>
       </c>
       <c r="I13">
-        <v>24.15728718724055</v>
+        <v>18.31315281316793</v>
       </c>
       <c r="J13">
-        <v>9.997661543422488</v>
+        <v>7.035678581784344</v>
       </c>
       <c r="K13">
-        <v>21.04254586631055</v>
+        <v>31.94427530114661</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.674842534760437</v>
+        <v>5.290909502540917</v>
       </c>
       <c r="D14">
-        <v>9.043941539244742</v>
+        <v>8.619717972740853</v>
       </c>
       <c r="E14">
-        <v>13.84707404129681</v>
+        <v>13.06140572256853</v>
       </c>
       <c r="F14">
-        <v>34.91491218797417</v>
+        <v>28.42138609693618</v>
       </c>
       <c r="G14">
-        <v>38.17069605959562</v>
+        <v>34.32060381310366</v>
       </c>
       <c r="H14">
-        <v>16.35890235792803</v>
+        <v>10.03966005927669</v>
       </c>
       <c r="I14">
-        <v>24.16823114981521</v>
+        <v>18.21682089846389</v>
       </c>
       <c r="J14">
-        <v>9.997513299822463</v>
+        <v>7.005866414894305</v>
       </c>
       <c r="K14">
-        <v>20.9257345632583</v>
+        <v>31.65557720429962</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.667292937392601</v>
+        <v>5.270683191270498</v>
       </c>
       <c r="D15">
-        <v>9.03436483118421</v>
+        <v>8.57963686257737</v>
       </c>
       <c r="E15">
-        <v>13.83634401208462</v>
+        <v>13.00192843699408</v>
       </c>
       <c r="F15">
-        <v>34.91868253226363</v>
+        <v>28.31341665472196</v>
       </c>
       <c r="G15">
-        <v>38.17556540044444</v>
+        <v>34.1610378202523</v>
       </c>
       <c r="H15">
-        <v>16.36691990010161</v>
+        <v>10.03033395458171</v>
       </c>
       <c r="I15">
-        <v>24.17511299947541</v>
+        <v>18.15852716518481</v>
       </c>
       <c r="J15">
-        <v>9.997457548359243</v>
+        <v>6.98768460013488</v>
       </c>
       <c r="K15">
-        <v>20.85388041308184</v>
+        <v>31.47772790989927</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.623719705240656</v>
+        <v>5.153614903697235</v>
       </c>
       <c r="D16">
-        <v>8.979518249188734</v>
+        <v>8.347420416942661</v>
       </c>
       <c r="E16">
-        <v>13.77545538621671</v>
+        <v>12.65898682527109</v>
       </c>
       <c r="F16">
-        <v>34.9443076849884</v>
+        <v>27.70722487656484</v>
       </c>
       <c r="G16">
-        <v>38.20956321388029</v>
+        <v>33.26643881955878</v>
       </c>
       <c r="H16">
-        <v>16.414240375434</v>
+        <v>9.984060856739077</v>
       </c>
       <c r="I16">
-        <v>24.21727445127449</v>
+        <v>17.83525183671907</v>
       </c>
       <c r="J16">
-        <v>9.997675517711768</v>
+        <v>6.884691117190359</v>
       </c>
       <c r="K16">
-        <v>20.43754765892592</v>
+        <v>30.44286710482689</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.596720569134023</v>
+        <v>5.08076679690648</v>
       </c>
       <c r="D17">
-        <v>8.945912933774006</v>
+        <v>8.20271600501361</v>
       </c>
       <c r="E17">
-        <v>13.73865096282277</v>
+        <v>12.44674581490726</v>
       </c>
       <c r="F17">
-        <v>34.96360212265508</v>
+        <v>27.346430400857</v>
       </c>
       <c r="G17">
-        <v>38.23583011202752</v>
+        <v>32.73522735652896</v>
       </c>
       <c r="H17">
-        <v>16.44449323942566</v>
+        <v>9.96184506236801</v>
       </c>
       <c r="I17">
-        <v>24.24555975501623</v>
+        <v>17.64640547899959</v>
       </c>
       <c r="J17">
-        <v>9.998289005251095</v>
+        <v>6.822566663724089</v>
       </c>
       <c r="K17">
-        <v>20.17817105391748</v>
+        <v>29.79386919464848</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.581095916591138</v>
+        <v>5.038490028556766</v>
       </c>
       <c r="D18">
-        <v>8.9266036843187</v>
+        <v>8.118664752603987</v>
       </c>
       <c r="E18">
-        <v>13.71768865497234</v>
+        <v>12.32399743811149</v>
       </c>
       <c r="F18">
-        <v>34.97600839403632</v>
+        <v>27.14294569355311</v>
       </c>
       <c r="G18">
-        <v>38.25291524351254</v>
+        <v>32.43612610515243</v>
       </c>
       <c r="H18">
-        <v>16.46234193213406</v>
+        <v>9.951245038254969</v>
       </c>
       <c r="I18">
-        <v>24.26271409547006</v>
+        <v>17.54120731674892</v>
       </c>
       <c r="J18">
-        <v>9.998818239281862</v>
+        <v>6.787219433850125</v>
       </c>
       <c r="K18">
-        <v>20.02756874373302</v>
+        <v>29.41532547283365</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.575789586490748</v>
+        <v>5.024111453216036</v>
       </c>
       <c r="D19">
-        <v>8.920069701282383</v>
+        <v>8.090065994500277</v>
       </c>
       <c r="E19">
-        <v>13.7106271287166</v>
+        <v>12.28232252831739</v>
       </c>
       <c r="F19">
-        <v>34.98043321767733</v>
+        <v>27.07473868590271</v>
       </c>
       <c r="G19">
-        <v>38.25903844484395</v>
+        <v>32.3359586156055</v>
       </c>
       <c r="H19">
-        <v>16.46846200243274</v>
+        <v>9.948021600614037</v>
       </c>
       <c r="I19">
-        <v>24.26867392139426</v>
+        <v>17.50617083934262</v>
       </c>
       <c r="J19">
-        <v>9.999027724964076</v>
+        <v>6.7753172809639</v>
       </c>
       <c r="K19">
-        <v>19.97633851532866</v>
+        <v>29.28624866778516</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.599604625521154</v>
+        <v>5.088560625400367</v>
       </c>
       <c r="D20">
-        <v>8.949488345153808</v>
+        <v>8.218205146449604</v>
       </c>
       <c r="E20">
-        <v>13.74254758236326</v>
+        <v>12.46940914250601</v>
       </c>
       <c r="F20">
-        <v>34.96141264610448</v>
+        <v>27.3844191592952</v>
       </c>
       <c r="G20">
-        <v>38.23282907430192</v>
+        <v>32.79110884150768</v>
       </c>
       <c r="H20">
-        <v>16.44122636564795</v>
+        <v>9.963982540901156</v>
       </c>
       <c r="I20">
-        <v>24.24245700711022</v>
+        <v>17.66615303932514</v>
       </c>
       <c r="J20">
-        <v>9.998205445682695</v>
+        <v>6.829139978747979</v>
       </c>
       <c r="K20">
-        <v>20.20592966680412</v>
+        <v>29.86349893130362</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.678457187638353</v>
+        <v>5.300588018942602</v>
       </c>
       <c r="D21">
-        <v>9.048534268421163</v>
+        <v>8.638893161132565</v>
       </c>
       <c r="E21">
-        <v>13.85222983053777</v>
+        <v>13.08988935969237</v>
       </c>
       <c r="F21">
-        <v>34.91317545582614</v>
+        <v>28.47338368187892</v>
       </c>
       <c r="G21">
-        <v>38.16846923657521</v>
+        <v>34.39747169976214</v>
       </c>
       <c r="H21">
-        <v>16.35508210833479</v>
+        <v>10.04426223780875</v>
       </c>
       <c r="I21">
-        <v>24.16497945118262</v>
+        <v>18.24496713996726</v>
       </c>
       <c r="J21">
-        <v>9.997549538294113</v>
+        <v>7.01460647785106</v>
       </c>
       <c r="K21">
-        <v>20.9601084108977</v>
+        <v>31.74058566342283</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.729075702950357</v>
+        <v>5.435772263286898</v>
       </c>
       <c r="D22">
-        <v>9.113346654053817</v>
+        <v>8.906451834190628</v>
       </c>
       <c r="E22">
-        <v>13.9256471338539</v>
+        <v>13.48926427641585</v>
       </c>
       <c r="F22">
-        <v>34.8934027893843</v>
+        <v>29.22188398923906</v>
       </c>
       <c r="G22">
-        <v>38.14424088598898</v>
+        <v>35.50533178215669</v>
       </c>
       <c r="H22">
-        <v>16.30280377798276</v>
+        <v>10.11803984474228</v>
       </c>
       <c r="I22">
-        <v>24.12231505813051</v>
+        <v>18.65498054732487</v>
       </c>
       <c r="J22">
-        <v>9.998689892621359</v>
+        <v>7.13934404894382</v>
       </c>
       <c r="K22">
-        <v>21.43952083724862</v>
+        <v>32.92185203827161</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.702146592261505</v>
+        <v>5.363932609720353</v>
       </c>
       <c r="D23">
-        <v>9.078752300646634</v>
+        <v>8.764327868634393</v>
       </c>
       <c r="E23">
-        <v>13.8863095528951</v>
+        <v>13.27667564684239</v>
       </c>
       <c r="F23">
-        <v>34.90287591833706</v>
+        <v>28.81898155734644</v>
       </c>
       <c r="G23">
-        <v>38.15552981887619</v>
+        <v>34.90869805965981</v>
       </c>
       <c r="H23">
-        <v>16.33033613766904</v>
+        <v>10.0766204150087</v>
       </c>
       <c r="I23">
-        <v>24.14435233320609</v>
+        <v>18.4331855208578</v>
       </c>
       <c r="J23">
-        <v>9.997937798266934</v>
+        <v>7.072441199099988</v>
       </c>
       <c r="K23">
-        <v>21.18492301745649</v>
+        <v>32.29548687125037</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.598301062111743</v>
+        <v>5.085038266659417</v>
       </c>
       <c r="D24">
-        <v>8.947871866695269</v>
+        <v>8.2112051793376</v>
       </c>
       <c r="E24">
-        <v>13.74078530575128</v>
+        <v>12.4591653179832</v>
       </c>
       <c r="F24">
-        <v>34.96239841772989</v>
+        <v>27.36723217583585</v>
       </c>
       <c r="G24">
-        <v>38.23417966631118</v>
+        <v>32.76582520793131</v>
       </c>
       <c r="H24">
-        <v>16.44270189947219</v>
+        <v>9.963009442377551</v>
       </c>
       <c r="I24">
-        <v>24.24385697960464</v>
+        <v>17.65721467796008</v>
       </c>
       <c r="J24">
-        <v>9.998242673079659</v>
+        <v>6.826167034768371</v>
       </c>
       <c r="K24">
-        <v>20.19338460772255</v>
+        <v>29.83203624265753</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.482680141465091</v>
+        <v>4.769882235754933</v>
       </c>
       <c r="D25">
-        <v>8.807502895999537</v>
+        <v>7.583334783280623</v>
       </c>
       <c r="E25">
-        <v>13.59177047381946</v>
+        <v>11.55192095105111</v>
       </c>
       <c r="F25">
-        <v>35.07655818377351</v>
+        <v>25.95510745329233</v>
       </c>
       <c r="G25">
-        <v>38.39443390602783</v>
+        <v>30.70017785264276</v>
       </c>
       <c r="H25">
-        <v>16.58101769954775</v>
+        <v>9.922612626664575</v>
       </c>
       <c r="I25">
-        <v>24.38498077103814</v>
+        <v>16.95014597367766</v>
       </c>
       <c r="J25">
-        <v>10.00531412955262</v>
+        <v>6.575222514510745</v>
       </c>
       <c r="K25">
-        <v>19.07040310500382</v>
+        <v>26.97317023848367</v>
       </c>
       <c r="L25">
         <v>0</v>
